--- a/website/tests/selenium/data.xlsx
+++ b/website/tests/selenium/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSzym\Desktop\stronka python\pythonapp-master\website\Testy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSzym\Desktop\stronka python\pythonapp\website\tests\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59B779-6D91-4A8C-B295-9908DA2D0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2CC96-B867-4754-A134-63E3C868D64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>jp2</t>
+    <t>jp23</t>
   </si>
   <si>
-    <t>jp3</t>
+    <t>jp35</t>
   </si>
   <si>
-    <t>jp5</t>
+    <t>jp0</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2137</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2137</v>

--- a/website/tests/selenium/data.xlsx
+++ b/website/tests/selenium/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSzym\Desktop\stronka python\pythonapp\website\tests\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2CC96-B867-4754-A134-63E3C868D64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF4E20-D267-4B2A-AE9F-9572280D3ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>login</t>
   </si>
@@ -33,13 +33,31 @@
     <t>password</t>
   </si>
   <si>
-    <t>jp23</t>
-  </si>
-  <si>
-    <t>jp35</t>
-  </si>
-  <si>
-    <t>jp0</t>
+    <t>jps1</t>
+  </si>
+  <si>
+    <t>test124</t>
+  </si>
+  <si>
+    <t>jps2</t>
+  </si>
+  <si>
+    <t>jps4</t>
+  </si>
+  <si>
+    <t>test125</t>
+  </si>
+  <si>
+    <t>test126</t>
+  </si>
+  <si>
+    <t>test127</t>
+  </si>
+  <si>
+    <t>dsdksadsfgadsgshgasdfghad</t>
+  </si>
+  <si>
+    <t>tests</t>
   </si>
 </sst>
 </file>
@@ -363,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,32 +401,40 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>2137</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2137</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2137</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2137</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
